--- a/output/SIZE/rebalance/rebalance_20250331.xlsx
+++ b/output/SIZE/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.29%</t>
+          <t>3.34%</t>
         </is>
       </c>
     </row>
@@ -31590,13 +31590,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2802984390901793</v>
+        <v>0.2798844771393106</v>
       </c>
       <c r="C2" t="n">
         <v>0.3000000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01970156090982084</v>
+        <v>0.02011552286068946</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31611,13 +31611,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06903451433806607</v>
+        <v>0.07041089327319905</v>
       </c>
       <c r="C3" t="n">
         <v>0.06585530655459018</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003179207783475885</v>
+        <v>-0.004555586718608867</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31632,13 +31632,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06282033549585299</v>
+        <v>0.06272841476052779</v>
       </c>
       <c r="C4" t="n">
         <v>0.05999347553897586</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002826859956877127</v>
+        <v>-0.002734939221551928</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31653,13 +31653,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03931696115309331</v>
+        <v>0.03925908624824288</v>
       </c>
       <c r="C5" t="n">
         <v>0.03851764583585995</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0007993153172333595</v>
+        <v>-0.0007414404123829224</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31674,13 +31674,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0296540369991477</v>
+        <v>0.02961033003906478</v>
       </c>
       <c r="C6" t="n">
         <v>0.02948604234392108</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0001679946552266172</v>
+        <v>-0.0001242876951437002</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -31695,13 +31695,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03021724284517886</v>
+        <v>0.0301726527320864</v>
       </c>
       <c r="C7" t="n">
         <v>0.02933104413772529</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0008861987074535657</v>
+        <v>-0.0008416085943611061</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31716,13 +31716,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02860757012657378</v>
+        <v>0.02856509535791051</v>
       </c>
       <c r="C8" t="n">
         <v>0.02766008065146575</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0009474894751080321</v>
+        <v>-0.0009050147064447629</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31737,13 +31737,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02738837037711346</v>
+        <v>0.02734755833892671</v>
       </c>
       <c r="C9" t="n">
         <v>0.02565013253867878</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001738237838434683</v>
+        <v>-0.001697425800247933</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31758,13 +31758,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02381577424363807</v>
+        <v>0.02378086479925024</v>
       </c>
       <c r="C10" t="n">
         <v>0.02351742821296957</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0002983460306685073</v>
+        <v>-0.0002634365862806756</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31779,13 +31779,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01942484217825118</v>
+        <v>0.01939575532799206</v>
       </c>
       <c r="C11" t="n">
         <v>0.0186746216636615</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0007502205145896758</v>
+        <v>-0.0007211336643305581</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31800,13 +31800,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01760360267518444</v>
+        <v>0.01757768252518919</v>
       </c>
       <c r="C12" t="n">
         <v>0.01750681075133141</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.679192385303112e-05</v>
+        <v>-7.087177385778007e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31821,13 +31821,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01650203298158992</v>
+        <v>0.01647758727465455</v>
       </c>
       <c r="C13" t="n">
         <v>0.01658628705346635</v>
       </c>
       <c r="D13" t="n">
-        <v>8.425407187643078e-05</v>
+        <v>0.0001086997788118001</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31842,13 +31842,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01425516353863839</v>
+        <v>0.0142341739175398</v>
       </c>
       <c r="C14" t="n">
         <v>0.01412080986140169</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0001343536772366975</v>
+        <v>-0.0001133640561381145</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31863,13 +31863,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01392521378438908</v>
+        <v>0.01390477194474177</v>
       </c>
       <c r="C15" t="n">
         <v>0.01360316318040431</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0003220506039847727</v>
+        <v>-0.0003016087643374563</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31884,13 +31884,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01363768359038171</v>
+        <v>0.01361757868898065</v>
       </c>
       <c r="C16" t="n">
         <v>0.01352980525075439</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0001078783396273163</v>
+        <v>-8.777343822626016e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31905,13 +31905,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01405647521671242</v>
+        <v>0.01403499088560257</v>
       </c>
       <c r="C17" t="n">
         <v>0.01338101880473058</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0006754564119818476</v>
+        <v>-0.0006539720808719993</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31926,13 +31926,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01291634797874103</v>
+        <v>0.01289727380539777</v>
       </c>
       <c r="C18" t="n">
         <v>0.01283053853425279</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.580944448823881e-05</v>
+        <v>-6.673527114497632e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31947,13 +31947,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01302981902755866</v>
+        <v>0.01301083074271372</v>
       </c>
       <c r="C19" t="n">
         <v>0.01280628308977177</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0002235359377868954</v>
+        <v>-0.0002045476529419585</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31968,13 +31968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01125954217614913</v>
+        <v>0.01124299081265597</v>
       </c>
       <c r="C20" t="n">
         <v>0.01133084214987752</v>
       </c>
       <c r="D20" t="n">
-        <v>7.129997372838821e-05</v>
+        <v>8.78513372215544e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31989,13 +31989,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01130690190494205</v>
+        <v>0.01129023782506783</v>
       </c>
       <c r="C21" t="n">
         <v>0.01122494642885063</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.195547609142484e-05</v>
+        <v>-6.529139621720519e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -32010,13 +32010,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01085534083946075</v>
+        <v>0.01083937396590519</v>
       </c>
       <c r="C22" t="n">
         <v>0.01083035175887891</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.498908058183938e-05</v>
+        <v>-9.02220702628416e-06</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -32031,13 +32031,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01060287080215432</v>
+        <v>0.010587294484998</v>
       </c>
       <c r="C23" t="n">
         <v>0.0104511385902854</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0001517322118689216</v>
+        <v>-0.0001361558947125963</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -32052,13 +32052,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01047527717603662</v>
+        <v>0.01045980576287588</v>
       </c>
       <c r="C24" t="n">
         <v>0.01031300087598496</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0001622763000516583</v>
+        <v>-0.0001468048868909274</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -32073,13 +32073,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01013114477050809</v>
+        <v>0.01011629103581248</v>
       </c>
       <c r="C25" t="n">
         <v>0.009920180994633801</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0002109637758742882</v>
+        <v>-0.0001961100411786796</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -32094,13 +32094,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009952627998080938</v>
+        <v>0.009937806566724879</v>
       </c>
       <c r="C26" t="n">
         <v>0.00981221468688292</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0001404133111980177</v>
+        <v>-0.0001255918798419593</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -32115,13 +32115,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01010101703296607</v>
+        <v>0.01008604669141564</v>
       </c>
       <c r="C27" t="n">
         <v>0.009809552503952077</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0002914645290139888</v>
+        <v>-0.0002764941874635607</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -32136,13 +32136,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009920276542761675</v>
+        <v>0.009905486572487547</v>
       </c>
       <c r="C28" t="n">
         <v>0.009579421579485811</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0003408549632758634</v>
+        <v>-0.0003260649930017356</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -32157,13 +32157,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01026462661956689</v>
+        <v>0.01024935022511036</v>
       </c>
       <c r="C29" t="n">
         <v>0.009559898904659626</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0007047277149072641</v>
+        <v>-0.0006894513204507343</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -32178,13 +32178,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009581724780265527</v>
+        <v>0.009567500788606902</v>
       </c>
       <c r="C30" t="n">
         <v>0.009329176383986507</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.00025254839627902</v>
+        <v>-0.0002383244046203943</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -32199,13 +32199,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009528842999147982</v>
+        <v>0.009514749293752206</v>
       </c>
       <c r="C31" t="n">
         <v>0.009299596573643799</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0002292464255041829</v>
+        <v>-0.0002151527201084066</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -32220,13 +32220,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.009611652043310178</v>
+        <v>0.009597318123535731</v>
       </c>
       <c r="C32" t="n">
         <v>0.009000248892975599</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0006114031503345798</v>
+        <v>-0.0005970692305601322</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -32241,13 +32241,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.009891588154051374</v>
+        <v>0.009876504925003894</v>
       </c>
       <c r="C33" t="n">
         <v>0.008985754785907674</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0009058333681436995</v>
+        <v>-0.0008907501390962198</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -32262,13 +32262,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008280682523063182</v>
+        <v>0.008268541939153299</v>
       </c>
       <c r="C34" t="n">
         <v>0.008349197267332608</v>
       </c>
       <c r="D34" t="n">
-        <v>6.851474426942603e-05</v>
+        <v>8.065532817930904e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -32283,13 +32283,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008594849846787761</v>
+        <v>0.008582061742916966</v>
       </c>
       <c r="C35" t="n">
         <v>0.008159294884932427</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0004355549618553344</v>
+        <v>-0.0004227668579845391</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -32304,13 +32304,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008357284355037721</v>
+        <v>0.008344748945821582</v>
       </c>
       <c r="C36" t="n">
         <v>0.007934784124431278</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0004225002306064429</v>
+        <v>-0.0004099648213903035</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -32325,13 +32325,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007858182436315669</v>
+        <v>0.007846732131135891</v>
       </c>
       <c r="C37" t="n">
         <v>0.007718555710826086</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0001396267254895837</v>
+        <v>-0.000128176420309805</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -32346,13 +32346,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007804729049452421</v>
+        <v>0.007793084862617384</v>
       </c>
       <c r="C38" t="n">
         <v>0.007685130525138826</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0001195985243135954</v>
+        <v>-0.0001079543374785585</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32367,13 +32367,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007884604197976474</v>
+        <v>0.00787275803092295</v>
       </c>
       <c r="C39" t="n">
         <v>0.007381345872919221</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0005032583250572532</v>
+        <v>-0.00049141215800373</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32388,13 +32388,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007517569631867744</v>
+        <v>0.00750660083787228</v>
       </c>
       <c r="C40" t="n">
         <v>0.007348512283438816</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0001690573484289283</v>
+        <v>-0.0001580885544334642</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -32409,13 +32409,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007210588718115517</v>
+        <v>0.007199983291727849</v>
       </c>
       <c r="C41" t="n">
         <v>0.007161567882072904</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.902083604261306e-05</v>
+        <v>-3.841540965494449e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -32430,13 +32430,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.007210414234173858</v>
+        <v>0.007199765987019396</v>
       </c>
       <c r="C42" t="n">
         <v>0.007037628476736959</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0001727857574368996</v>
+        <v>-0.0001621375102824375</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -32451,13 +32451,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007047765328970304</v>
+        <v>0.007037358965016212</v>
       </c>
       <c r="C43" t="n">
         <v>0.006891504213643985</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0001562611153263192</v>
+        <v>-0.0001458547513722274</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32472,13 +32472,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006909618710972689</v>
+        <v>0.006899498392275299</v>
       </c>
       <c r="C44" t="n">
         <v>0.006609312822974557</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0003003058879981323</v>
+        <v>-0.0002901855693007421</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32493,13 +32493,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.007153017353509054</v>
+        <v>0.007142182497711854</v>
       </c>
       <c r="C45" t="n">
         <v>0.006556956558667963</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0005960607948410912</v>
+        <v>-0.0005852259390438912</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32535,13 +32535,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006860716324007462</v>
+        <v>0.006850521944136242</v>
       </c>
       <c r="C47" t="n">
         <v>0.006490993581603726</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.000369722742403736</v>
+        <v>-0.0003595283625325166</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32556,13 +32556,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006643487987775532</v>
+        <v>0.006633666918512394</v>
       </c>
       <c r="C48" t="n">
         <v>0.006477682666949508</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0001658053208260244</v>
+        <v>-0.0001559842515628856</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -32598,13 +32598,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006816435675501368</v>
+        <v>0.006805955774382156</v>
       </c>
       <c r="C50" t="n">
         <v>0.006435087740056009</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0003813479354453598</v>
+        <v>-0.0003708680343261477</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -32619,13 +32619,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006723855961763424</v>
+        <v>0.006714100738811143</v>
       </c>
       <c r="C51" t="n">
         <v>0.006295175237135002</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0004286807246284222</v>
+        <v>-0.0004189255016761413</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -32640,13 +32640,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005471042997715365</v>
+        <v>0.005462766306620818</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005471042997715365</v>
+        <v>-0.005462766306620818</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32661,13 +32661,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005667295187302463</v>
+        <v>0.005658895818062829</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005667295187302463</v>
+        <v>-0.005658895818062829</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20250331.xlsx
+++ b/output/SIZE/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.34%</t>
+          <t>3.32%</t>
         </is>
       </c>
     </row>
@@ -31590,13 +31590,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2798844771393106</v>
+        <v>0.2798854174961294</v>
       </c>
       <c r="C2" t="n">
         <v>0.3000000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02011552286068946</v>
+        <v>0.02011458250387071</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31611,13 +31611,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07041089327319905</v>
+        <v>0.06776606937187703</v>
       </c>
       <c r="C3" t="n">
         <v>0.06585530655459018</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.004555586718608867</v>
+        <v>-0.001910762817286846</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31632,13 +31632,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06272841476052779</v>
+        <v>0.06301982958597928</v>
       </c>
       <c r="C4" t="n">
         <v>0.05999347553897586</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002734939221551928</v>
+        <v>-0.003026354047003417</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31653,13 +31653,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03925908624824288</v>
+        <v>0.03944181724196746</v>
       </c>
       <c r="C5" t="n">
         <v>0.03851764583585995</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0007414404123829224</v>
+        <v>-0.0009241714061075101</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31674,13 +31674,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02961033003906478</v>
+        <v>0.02974820722417154</v>
       </c>
       <c r="C6" t="n">
         <v>0.02948604234392108</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0001242876951437002</v>
+        <v>-0.000262164880250465</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -31695,13 +31695,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0301726527320864</v>
+        <v>0.0303132016031184</v>
       </c>
       <c r="C7" t="n">
         <v>0.02933104413772529</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0008416085943611061</v>
+        <v>-0.0009821574653931069</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31716,13 +31716,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02856509535791051</v>
+        <v>0.0286984171608674</v>
       </c>
       <c r="C8" t="n">
         <v>0.02766008065146575</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0009050147064447629</v>
+        <v>-0.001038336509401647</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31737,13 +31737,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02734755833892671</v>
+        <v>0.02747534568511365</v>
       </c>
       <c r="C9" t="n">
         <v>0.02565013253867878</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001697425800247933</v>
+        <v>-0.001825213146434874</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31758,13 +31758,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02378086479925024</v>
+        <v>0.02389140431112961</v>
       </c>
       <c r="C10" t="n">
         <v>0.02351742821296957</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0002634365862806756</v>
+        <v>-0.0003739760981600407</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31779,13 +31779,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01939575532799206</v>
+        <v>0.01948652827377443</v>
       </c>
       <c r="C11" t="n">
         <v>0.0186746216636615</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0007211336643305581</v>
+        <v>-0.0008119066101129301</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31800,13 +31800,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01757768252518919</v>
+        <v>0.01765950518940871</v>
       </c>
       <c r="C12" t="n">
         <v>0.01750681075133141</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.087177385778007e-05</v>
+        <v>-0.000152694438077302</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31821,13 +31821,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01647758727465455</v>
+        <v>0.01655443731895796</v>
       </c>
       <c r="C13" t="n">
         <v>0.01658628705346635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001086997788118001</v>
+        <v>3.184973450839901e-05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31842,13 +31842,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0142341739175398</v>
+        <v>0.01430043265185303</v>
       </c>
       <c r="C14" t="n">
         <v>0.01412080986140169</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0001133640561381145</v>
+        <v>-0.0001796227904513406</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31863,13 +31863,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01390477194474177</v>
+        <v>0.01396943509953816</v>
       </c>
       <c r="C15" t="n">
         <v>0.01360316318040431</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0003016087643374563</v>
+        <v>-0.0003662719191338502</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31884,13 +31884,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01361757868898065</v>
+        <v>0.01368099181625826</v>
       </c>
       <c r="C16" t="n">
         <v>0.01352980525075439</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.777343822626016e-05</v>
+        <v>-0.0001511865655038653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31905,13 +31905,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01403499088560257</v>
+        <v>0.01410111336949542</v>
       </c>
       <c r="C17" t="n">
         <v>0.01338101880473058</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0006539720808719993</v>
+        <v>-0.0007200945647648435</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31926,13 +31926,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01289727380539777</v>
+        <v>0.01295736551020495</v>
       </c>
       <c r="C18" t="n">
         <v>0.01283053853425279</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.673527114497632e-05</v>
+        <v>-0.0001268269759521594</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31947,13 +31947,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01301083074271372</v>
+        <v>0.01307119690099562</v>
       </c>
       <c r="C19" t="n">
         <v>0.01280628308977177</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0002045476529419585</v>
+        <v>-0.0002649138112238575</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31968,13 +31968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01124299081265597</v>
+        <v>0.01129529830677055</v>
       </c>
       <c r="C20" t="n">
         <v>0.01133084214987752</v>
       </c>
       <c r="D20" t="n">
-        <v>8.78513372215544e-05</v>
+        <v>3.554384310697038e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31989,13 +31989,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01129023782506783</v>
+        <v>0.0113428084324999</v>
       </c>
       <c r="C21" t="n">
         <v>0.01122494642885063</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.529139621720519e-05</v>
+        <v>-0.00011786200364927</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -32010,13 +32010,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01083937396590519</v>
+        <v>0.01088981337652517</v>
       </c>
       <c r="C22" t="n">
         <v>0.01083035175887891</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.02220702628416e-06</v>
+        <v>-5.946161764625903e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -32031,13 +32031,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.010587294484998</v>
+        <v>0.01063654158800269</v>
       </c>
       <c r="C23" t="n">
         <v>0.0104511385902854</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0001361558947125963</v>
+        <v>-0.0001854029977172919</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -32052,13 +32052,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01045980576287588</v>
+        <v>0.01050854277184347</v>
       </c>
       <c r="C24" t="n">
         <v>0.01031300087598496</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0001468048868909274</v>
+        <v>-0.0001955418958585094</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -32073,13 +32073,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01011629103581248</v>
+        <v>0.01016331752940819</v>
       </c>
       <c r="C25" t="n">
         <v>0.009920180994633801</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0001961100411786796</v>
+        <v>-0.0002431365347743894</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -32094,13 +32094,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009937806566724879</v>
+        <v>0.009984233853910448</v>
       </c>
       <c r="C26" t="n">
         <v>0.00981221468688292</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0001255918798419593</v>
+        <v>-0.0001720191670275279</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -32115,13 +32115,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01008604669141564</v>
+        <v>0.01013309411734387</v>
       </c>
       <c r="C27" t="n">
         <v>0.009809552503952077</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0002764941874635607</v>
+        <v>-0.0003235416133917906</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -32136,13 +32136,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009905486572487547</v>
+        <v>0.009951779662365864</v>
       </c>
       <c r="C28" t="n">
         <v>0.009579421579485811</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0003260649930017356</v>
+        <v>-0.0003723580828800532</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -32157,13 +32157,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01024935022511036</v>
+        <v>0.01029722326732108</v>
       </c>
       <c r="C29" t="n">
         <v>0.009559898904659626</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0006894513204507343</v>
+        <v>-0.0007373243626614574</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -32178,13 +32178,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009567500788606902</v>
+        <v>0.009612152785015787</v>
       </c>
       <c r="C30" t="n">
         <v>0.009329176383986507</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0002383244046203943</v>
+        <v>-0.00028297640102928</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -32199,13 +32199,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009514749293752206</v>
+        <v>0.009339243700339006</v>
       </c>
       <c r="C31" t="n">
         <v>0.009299596573643799</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0002151527201084066</v>
+        <v>-3.96471266952067e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -32220,13 +32220,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.009597318123535731</v>
+        <v>0.009642175085950068</v>
       </c>
       <c r="C32" t="n">
         <v>0.009000248892975599</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0005970692305601322</v>
+        <v>-0.000641926192974469</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -32241,13 +32241,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.009876504925003894</v>
+        <v>0.009923000169971413</v>
       </c>
       <c r="C33" t="n">
         <v>0.008985754785907674</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0008907501390962198</v>
+        <v>-0.0009372453840637389</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -32262,13 +32262,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008268541939153299</v>
+        <v>0.008306978900064765</v>
       </c>
       <c r="C34" t="n">
         <v>0.008349197267332608</v>
       </c>
       <c r="D34" t="n">
-        <v>8.065532817930904e-05</v>
+        <v>4.221836726784299e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -32283,13 +32283,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008582061742916966</v>
+        <v>0.008622143902708098</v>
       </c>
       <c r="C35" t="n">
         <v>0.008159294884932427</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0004227668579845391</v>
+        <v>-0.0004628490177756711</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -32304,13 +32304,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008344748945821582</v>
+        <v>0.008383823991051699</v>
       </c>
       <c r="C36" t="n">
         <v>0.007934784124431278</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0004099648213903035</v>
+        <v>-0.0004490398666204213</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -32325,13 +32325,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007846732131135891</v>
+        <v>0.007883137109715718</v>
       </c>
       <c r="C37" t="n">
         <v>0.007718555710826086</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.000128176420309805</v>
+        <v>-0.0001645813988896318</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -32346,13 +32346,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007793084862617384</v>
+        <v>0.007829513974717687</v>
       </c>
       <c r="C38" t="n">
         <v>0.007685130525138826</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0001079543374785585</v>
+        <v>-0.0001443834495788608</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32367,13 +32367,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00787275803092295</v>
+        <v>0.007909642777093674</v>
       </c>
       <c r="C39" t="n">
         <v>0.007381345872919221</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00049141215800373</v>
+        <v>-0.0005282969041744533</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32388,13 +32388,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.00750660083787228</v>
+        <v>0.007541442645308917</v>
       </c>
       <c r="C40" t="n">
         <v>0.007348512283438816</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0001580885544334642</v>
+        <v>-0.0001929303618701016</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -32409,13 +32409,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007199983291727849</v>
+        <v>0.007233486874011083</v>
       </c>
       <c r="C41" t="n">
         <v>0.007161567882072904</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.841540965494449e-05</v>
+        <v>-7.191899193817897e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -32430,13 +32430,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.007199765987019396</v>
+        <v>0.007233311835973139</v>
       </c>
       <c r="C42" t="n">
         <v>0.007037628476736959</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0001621375102824375</v>
+        <v>-0.0001956833592361802</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -32451,13 +32451,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007037358965016212</v>
+        <v>0.007070146418161087</v>
       </c>
       <c r="C43" t="n">
         <v>0.006891504213643985</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0001458547513722274</v>
+        <v>-0.0001786422045171017</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32472,13 +32472,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006899498392275299</v>
+        <v>0.006931561097733052</v>
       </c>
       <c r="C44" t="n">
         <v>0.006609312822974557</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0002901855693007421</v>
+        <v>-0.0003222482747584953</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32493,13 +32493,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.007142182497711854</v>
+        <v>0.007175732684099592</v>
       </c>
       <c r="C45" t="n">
         <v>0.006556956558667963</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0005852259390438912</v>
+        <v>-0.0006187761254316292</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32535,13 +32535,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006850521944136242</v>
+        <v>0.006882503414921103</v>
       </c>
       <c r="C47" t="n">
         <v>0.006490993581603726</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0003595283625325166</v>
+        <v>-0.0003915098333173777</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32556,13 +32556,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006633666918512394</v>
+        <v>0.006664585242047199</v>
       </c>
       <c r="C48" t="n">
         <v>0.006477682666949508</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0001559842515628856</v>
+        <v>-0.0001869025750976909</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -32598,13 +32598,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006805955774382156</v>
+        <v>0.006838082147495763</v>
       </c>
       <c r="C50" t="n">
         <v>0.006435087740056009</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0003708680343261477</v>
+        <v>-0.0004029944074397541</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -32619,13 +32619,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006714100738811143</v>
+        <v>0.006580257110080581</v>
       </c>
       <c r="C51" t="n">
         <v>0.006295175237135002</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0004189255016761413</v>
+        <v>-0.0002850818729455791</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -32640,13 +32640,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005462766306620818</v>
+        <v>0.00548841700147158</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005462766306620818</v>
+        <v>-0.00548841700147158</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32661,13 +32661,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005658895818062829</v>
+        <v>0.005685292415237412</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005658895818062829</v>
+        <v>-0.005685292415237412</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
